--- a/seronetTemplates/template/subjectAnimals.xlsx
+++ b/seronetTemplates/template/subjectAnimals.xlsx
@@ -1,133 +1,331 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AAAD7D-99C8-6F45-94C1-F4ADC46BC89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="20540" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="subjectAnimals.txt" r:id="rId3" sheetId="1"/>
-    <sheet name="lookup" r:id="rId4" sheetId="2"/>
+    <sheet name="subjectAnimals.txt" sheetId="1" r:id="rId1"/>
+    <sheet name="lookup" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="lookupage_event1173">lookup!$A$451:$A$459</definedName>
+    <definedName name="lookupage_unit1172">lookup!$A$441:$A$450</definedName>
+    <definedName name="lookupdisease_reported1169">lookup!$A$81:$A$424</definedName>
+    <definedName name="lookupdisease_stage_reported1171">lookup!$A$432:$A$440</definedName>
     <definedName name="lookupexposure_material_reported1168">lookup!$A$1:$A$80</definedName>
-    <definedName name="lookupdisease_reported1169">lookup!$A$81:$A$424</definedName>
+    <definedName name="lookupexposure_process_reported1176">lookup!$A$738:$A$757</definedName>
     <definedName name="lookupgender1170">lookup!$A$425:$A$431</definedName>
-    <definedName name="lookupdisease_stage_reported1171">lookup!$A$432:$A$440</definedName>
-    <definedName name="lookupage_unit1172">lookup!$A$441:$A$450</definedName>
-    <definedName name="lookupage_event1173">lookup!$A$451:$A$459</definedName>
+    <definedName name="lookupspecies1175">lookup!$A$720:$A$737</definedName>
     <definedName name="lookupsubject_location1174">lookup!$A$460:$A$719</definedName>
-    <definedName name="lookupspecies1175">lookup!$A$720:$A$737</definedName>
-    <definedName name="lookupexposure_process_reported1176">lookup!$A$738:$A$757</definedName>
   </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
     <author>Apache POI</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="1">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded.  The template column is associated with the following database table column subject.user_defined_id and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded.  The template column is associated with the following database table column subject.user_defined_id and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="1">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t>Please enter either a study arm or cohort user defined ID or ImmPort accession. When subjects are initially uploaded to ImmPort, they may be assigned to a single study's arm.  The template column is associated with the following database table column arm_or_cohort.user_defined_id and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please enter either a study arm or cohort user defined ID or ImmPort accession. When subjects are initially uploaded to ImmPort, they may be assigned to a single study's arm.  The template column is associated with the following database table column arm_or_cohort.user_defined_id and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="1">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t>Please choose from the drop down list.  The template column is associated with the following database table column subject.gender and has data type varchar(20)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please choose from the drop down list.  The template column is associated with the following database table column subject.gender and has data type varchar(20)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="1">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t>Please enter a number.  The template column is associated with the following database table column arm_2_subject.min_subject_age and has data type float</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please enter a number.  The template column is associated with the following database table column arm_2_subject.min_subject_age and has data type float</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="1">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <t>Please enter a number.  The template column is associated with the following database table column arm_2_subject.max_subject_age and has data type float</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please enter a number.  The template column is associated with the following database table column arm_2_subject.max_subject_age and has data type float</t>
+        </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
-        <t>Please choose from the drop down list.  The age unit must conform to the age unit assigned to the study.  The template column is associated with the following database table column arm_2_subject.age_unit and has data type varchar(25)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please choose from the drop down list.  The age unit must conform to the age unit assigned to the study.  The template column is associated with the following database table column arm_2_subject.age_unit and has data type varchar(25)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="1">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
-        <t>Please choose from the drop down list.  The template column is associated with the following database table column arm_2_subject.age_event and has data type varchar(40)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please choose from the drop down list.  The template column is associated with the following database table column arm_2_subject.age_event and has data type varchar(40)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
-        <t>If "Age Event" = Other, this field specifies the age event (free text). Otherwise, leave this column blank.  The template column is associated with the following database table column arm_2_subject.age_event_specify and has data type varchar(50)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>If "Age Event" = Other, this field specifies the age event (free text). Otherwise, leave this column blank.  The template column is associated with the following database table column arm_2_subject.age_event_specify and has data type varchar(50)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
-        <t>Enter a description of the subject.  The template column is associated with the following database table column arm_2_subject.subject_phenotype and has data type varchar(200)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Enter a description of the subject.  The template column is associated with the following database table column arm_2_subject.subject_phenotype and has data type varchar(200)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
-        <t>Please choose from the drop down list.  The template column is associated with the following database table column arm_2_subject.subject_location and has data type varchar(50)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please choose from the drop down list.  The template column is associated with the following database table column arm_2_subject.subject_location and has data type varchar(50)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
-        <t>Please choose from the drop down list.  The template column is associated with the following database table column subject.species and has data type varchar(30)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please choose from the drop down list.  The template column is associated with the following database table column subject.species and has data type varchar(30)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
-        <t>Please provide strain and breed information as available.  The template column is associated with the following database table column subject.strain and has data type varchar(50)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please provide strain and breed information as available.  The template column is associated with the following database table column subject.strain and has data type varchar(50)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
-        <t>Strain or breed characteristics that are relevant for the study (e.g. susceptibility).  The template column is associated with the following database table column subject.strain_characteristics and has data type varchar(500)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Strain or breed characteristics that are relevant for the study (e.g. susceptibility).  The template column is associated with the following database table column subject.strain_characteristics and has data type varchar(500)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
-        <t>This pseudo column separates the results (lab tests) from the lab test panel meta data. It must always appear and be the column that appears immediately after the last meta-data column and before any result columns.</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This pseudo column separates the results (lab tests) from the lab test panel meta data. It must always appear and be the column that appears immediately after the last meta-data column and before any result columns.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1">
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
-        <t>This identifies the type of process through which a host is exposed and the type of evidence for that exposure to have happened, which are tightly intertwined. This is the only element of the four that is always mandatory. Please select an exposure process from the list provided if the process matches yours or enter a exposure process if there is not an appropriate one provided. This exposure process is visible when the result is shared.  The value provided by the user is further checked against the pref mapping table lk_exposure_process_pref_map.  The template column is associated with the following database table column immune_exposure.exposure_process_reported and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>This identifies the type of process through which a host is exposed and the type of evidence for that exposure to have happened, which are tightly intertwined. This is the only element of the four that is always mandatory. Please select an exposure process from the list provided if the process matches yours or enter a exposure process if there is not an appropriate one provided. This exposure process is visible when the result is shared.  The value provided by the user is further checked against the pref mapping table lk_exposure_process_pref_map.  The template column is associated with the following database table column immune_exposure.exposure_process_reported and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1">
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
-        <t>This describes what substance(s) the host is exposed to and/or develops immune reactions to as part of the exposure process. Please select an exposure material from the list provided if the exposure material matches yours or enter a exposure material if there is not an appropriate one provided. This exposure material is visible when the result is shared.  The value provided by the user is further checked against the pref mapping table lk_exposure_material_pref_map.  The template column is associated with the following database table column immune_exposure.exposure_material_reported and has data type varchar(200)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This describes what substance(s) the host is exposed to and/or develops immune reactions to as part of the exposure process. Please select an exposure material from the list provided if the exposure material matches yours or enter a exposure material if there is not an appropriate one provided. This exposure material is visible when the result is shared.  The value provided by the user is further checked against the pref mapping table lk_exposure_material_pref_map.  The template column is associated with the following database table column immune_exposure.exposure_material_reported and has data type varchar(200)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1">
+    <comment ref="R3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
-        <t>The NCBI or Vaccine Ontology ID associated with the exposure material. If the Exposure Material Reported is not a preferred value, then the Exposure Material ID must be provided. If the Exposure Material Reported is a preferred value, then the Exposure Material ID will be automatically be the ID associated with the preferred value and user will NOT need to supply this ID.  The template column is associated with the following database table column immune_exposure.exposure_material_id and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The NCBI or Vaccine Ontology ID associated with the exposure material. If the Exposure Material Reported is not a preferred value, then the Exposure Material ID must be provided. If the Exposure Material Reported is a preferred value, then the Exposure Material ID will be automatically be the ID associated with the preferred value and user will NOT need to supply this ID.  The template column is associated with the following database table column immune_exposure.exposure_material_id and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1">
+    <comment ref="S3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
-        <t>This indicates the specific disease of the host associated with the exposure. Please select a disease from the list provided if the disease matches yours or enter a disease if there is not an appropriate one provided. This disease is visible when the result is shared.  The Value provide by the user is further checked against the pref mapping table lk_study_condition_pref_mappng.  The template column is associated with the following database table column immune_exposure.disease_reported and has data type varchar(550)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This indicates the specific disease of the host associated with the exposure. Please select a disease from the list provided if the disease matches yours or enter a disease if there is not an appropriate one provided. This disease is visible when the result is shared.  The Value provide by the user is further checked against the pref mapping table lk_study_condition_pref_mappng.  The template column is associated with the following database table column immune_exposure.disease_reported and has data type varchar(550)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="1">
+    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
-        <t>The NCBI Disease Ontology ID associated with the disease. If the Disease Reported is not a preferred value, then the Disease Ontology ID must be provided. If the disease is a preferred value, then the Disease Ontology ID will be the DOID associated with the preferred value.  The template column is associated with the following database table column immune_exposure.disease_ontology_id and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The NCBI Disease Ontology ID associated with the disease. If the Disease Reported is not a preferred value, then the Disease Ontology ID must be provided. If the disease is a preferred value, then the Disease Ontology ID will be the DOID associated with the preferred value.  The template column is associated with the following database table column immune_exposure.disease_ontology_id and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="1">
+    <comment ref="U3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
-        <t>This provides a broad classification of how the disease has progressed. Please select a disease stage from the list provided if the disease stage matches yours or enter a disease stage if there is not an appropriate one provided. This disease stage is visible when the result is shared.  The template column is associated with the following database table column immune_exposure.disease_stage_reported and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This provides a broad classification of how the disease has progressed. Please select a disease stage from the list provided if the disease stage matches yours or enter a disease stage if there is not an appropriate one provided. This disease stage is visible when the result is shared.  The template column is associated with the following database table column immune_exposure.disease_stage_reported and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -2438,58 +2636,50 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <sz val="9.0"/>
-      <color indexed="8"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <sz val="9.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="CCFFFF"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="CCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="22"/>
+        <fgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -2498,127 +2688,23 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF99CC"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF3333"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3333"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFBDBD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDBD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FC9090"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FC9090"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFF33"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF33"/>
+        <fgColor rgb="FFFF3333"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
-    </border>
-    <border>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -2633,179 +2719,7 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2820,197 +2734,440 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U200"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.46875" customWidth="true"/>
-    <col min="2" max="2" width="13.46875" customWidth="true"/>
-    <col min="3" max="3" width="13.46875" customWidth="true"/>
-    <col min="4" max="4" width="13.46875" customWidth="true"/>
-    <col min="5" max="5" width="13.46875" customWidth="true"/>
-    <col min="6" max="6" width="13.46875" customWidth="true"/>
-    <col min="7" max="7" width="13.46875" customWidth="true"/>
-    <col min="8" max="8" width="13.46875" customWidth="true"/>
-    <col min="9" max="9" width="13.46875" customWidth="true"/>
-    <col min="10" max="10" width="13.46875" customWidth="true"/>
-    <col min="11" max="11" width="13.46875" customWidth="true"/>
-    <col min="12" max="12" width="13.46875" customWidth="true"/>
-    <col min="13" max="13" width="13.46875" customWidth="true"/>
-    <col min="14" max="14" width="13.46875" customWidth="true"/>
-    <col min="15" max="15" width="13.46875" customWidth="true"/>
-    <col min="16" max="16" width="13.46875" customWidth="true"/>
-    <col min="17" max="17" width="13.46875" customWidth="true"/>
-    <col min="18" max="18" width="13.46875" customWidth="true"/>
-    <col min="19" max="19" width="13.46875" customWidth="true"/>
-    <col min="20" max="20" width="13.46875" customWidth="true"/>
-    <col min="21" max="21" width="13.46875" customWidth="true"/>
+    <col min="1" max="21" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45.0" customHeight="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="60.0" customHeight="true">
-      <c r="A2" t="s" s="1">
+    <row r="2" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="75.0" customHeight="true">
-      <c r="A3" t="s" s="8">
+    <row r="3" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="14">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="14">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="14">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="14">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="14">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="12">
+      <c r="I3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="12">
+      <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K3" t="s" s="14">
+      <c r="K3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s" s="14">
+      <c r="L3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M3" t="s" s="14">
+      <c r="M3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N3" t="s" s="12">
+      <c r="N3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O3" t="s" s="10">
+      <c r="O3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P3" t="s" s="2">
+      <c r="P3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" t="s" s="7">
+      <c r="Q3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R3" t="s" s="7">
+      <c r="R3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S3" t="s" s="7">
+      <c r="S3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T3" t="s" s="7">
+      <c r="T3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U3" t="s" s="7">
+      <c r="U3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3033,7 +3190,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3056,7 +3213,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3079,7 +3236,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3102,7 +3259,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3125,7 +3282,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3148,7 +3305,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3171,7 +3328,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3194,7 +3351,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3217,7 +3374,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3240,7 +3397,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3263,7 +3420,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3286,7 +3443,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3309,7 +3466,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3332,7 +3489,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3355,7 +3512,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3378,7 +3535,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3401,7 +3558,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3424,7 +3581,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3447,7 +3604,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3470,7 +3627,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3493,7 +3650,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3516,7 +3673,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3539,7 +3696,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3562,7 +3719,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3585,7 +3742,7 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3608,7 +3765,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3631,7 +3788,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3654,7 +3811,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3677,7 +3834,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3700,7 +3857,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3723,7 +3880,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3746,7 +3903,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3769,7 +3926,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3792,7 +3949,7 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3815,7 +3972,7 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3838,7 +3995,7 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3861,7 +4018,7 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3884,7 +4041,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3907,7 +4064,7 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3930,7 +4087,7 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3953,7 +4110,7 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3976,7 +4133,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3999,7 +4156,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4022,7 +4179,7 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4045,7 +4202,7 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4068,7 +4225,7 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4091,7 +4248,7 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4114,7 +4271,7 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4137,7 +4294,7 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4160,7 +4317,7 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4183,7 +4340,7 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4206,7 +4363,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4229,7 +4386,7 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4252,7 +4409,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4275,7 +4432,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4298,7 +4455,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4321,7 +4478,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4344,7 +4501,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4367,7 +4524,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4390,7 +4547,7 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4413,7 +4570,7 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4436,7 +4593,7 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4459,7 +4616,7 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4482,7 +4639,7 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4505,7 +4662,7 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4528,7 +4685,7 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4551,7 +4708,7 @@
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4574,7 +4731,7 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4597,7 +4754,7 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4620,7 +4777,7 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4643,7 +4800,7 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4666,7 +4823,7 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4689,7 +4846,7 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4712,7 +4869,7 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4735,7 +4892,7 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4758,7 +4915,7 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4781,7 +4938,7 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4804,7 +4961,7 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4827,7 +4984,7 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4850,7 +5007,7 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4873,7 +5030,7 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4896,7 +5053,7 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4919,7 +5076,7 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4942,7 +5099,7 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4965,7 +5122,7 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4988,7 +5145,7 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5011,7 +5168,7 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5034,7 +5191,7 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5057,7 +5214,7 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5080,7 +5237,7 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5103,7 +5260,7 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5126,7 +5283,7 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5149,7 +5306,7 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5172,7 +5329,7 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5195,7 +5352,7 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5218,7 +5375,7 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5241,7 +5398,7 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5264,7 +5421,7 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5287,7 +5444,7 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5310,7 +5467,7 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5333,7 +5490,7 @@
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5356,7 +5513,7 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5379,7 +5536,7 @@
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5402,7 +5559,7 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5425,7 +5582,7 @@
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5448,7 +5605,7 @@
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5471,7 +5628,7 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5494,7 +5651,7 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5517,7 +5674,7 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5540,7 +5697,7 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5563,7 +5720,7 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5586,7 +5743,7 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5609,7 +5766,7 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5632,7 +5789,7 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5655,7 +5812,7 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5678,7 +5835,7 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5701,7 +5858,7 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5724,7 +5881,7 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5747,7 +5904,7 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5770,7 +5927,7 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5793,7 +5950,7 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5816,7 +5973,7 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5839,7 +5996,7 @@
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5862,7 +6019,7 @@
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5885,7 +6042,7 @@
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5908,7 +6065,7 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5931,7 +6088,7 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5954,7 +6111,7 @@
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5977,7 +6134,7 @@
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6000,7 +6157,7 @@
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6023,7 +6180,7 @@
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6046,7 +6203,7 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6069,7 +6226,7 @@
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6092,7 +6249,7 @@
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6115,7 +6272,7 @@
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6138,7 +6295,7 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6161,7 +6318,7 @@
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6184,7 +6341,7 @@
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6207,7 +6364,7 @@
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6230,7 +6387,7 @@
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6253,7 +6410,7 @@
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6276,7 +6433,7 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6299,7 +6456,7 @@
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6322,7 +6479,7 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6345,7 +6502,7 @@
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6368,7 +6525,7 @@
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6391,7 +6548,7 @@
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6414,7 +6571,7 @@
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6437,7 +6594,7 @@
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6460,7 +6617,7 @@
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6483,7 +6640,7 @@
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6506,7 +6663,7 @@
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6529,7 +6686,7 @@
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6552,7 +6709,7 @@
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6575,7 +6732,7 @@
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6598,7 +6755,7 @@
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6621,7 +6778,7 @@
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6644,7 +6801,7 @@
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6667,7 +6824,7 @@
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6690,7 +6847,7 @@
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6713,7 +6870,7 @@
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6736,7 +6893,7 @@
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6759,7 +6916,7 @@
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6782,7 +6939,7 @@
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6805,7 +6962,7 @@
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6828,7 +6985,7 @@
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6851,7 +7008,7 @@
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6874,7 +7031,7 @@
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6897,7 +7054,7 @@
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6920,7 +7077,7 @@
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6943,7 +7100,7 @@
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6966,7 +7123,7 @@
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6989,7 +7146,7 @@
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7012,7 +7169,7 @@
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7035,7 +7192,7 @@
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7058,7 +7215,7 @@
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7081,7 +7238,7 @@
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7104,7 +7261,7 @@
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7127,7 +7284,7 @@
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7150,7 +7307,7 @@
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7173,7 +7330,7 @@
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7196,7 +7353,7 @@
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7219,7 +7376,7 @@
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7242,7 +7399,7 @@
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7265,7 +7422,7 @@
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7288,7 +7445,7 @@
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7311,7 +7468,7 @@
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7334,7 +7491,7 @@
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7357,7 +7514,7 @@
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7380,7 +7537,7 @@
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7403,7 +7560,7 @@
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7426,7 +7583,7 @@
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7449,7 +7606,7 @@
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7472,7 +7629,7 @@
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7495,7 +7652,7 @@
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7518,7 +7675,7 @@
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7543,3789 +7700,3789 @@
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" sqref="Q4:Q201" allowBlank="true" errorStyle="information" promptTitle="Exposure Material Reported" prompt="Please choose preferred value from the list" errorTitle="Exposure Material Reported" error="Preferred value was not selected" showInputMessage="true">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Exposure Material Reported" error="Preferred value was not selected" promptTitle="Exposure Material Reported" prompt="Please choose preferred value from the list" sqref="Q4:Q201" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>lookupexposure_material_reported1168</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="S4:S201" allowBlank="true" errorStyle="information" promptTitle="Disease Reported" prompt="Please choose preferred value from the list" errorTitle="Disease Reported" error="Preferred value was not selected" showInputMessage="true">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Disease Reported" error="Preferred value was not selected" promptTitle="Disease Reported" prompt="Please choose preferred value from the list" sqref="S4:S201" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>lookupdisease_reported1169</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D4:D201" allowBlank="true" errorStyle="stop" promptTitle="Gender" prompt="Please choose required value from the list" errorTitle="Gender" error="Required value was not selected" showInputMessage="true">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Gender" error="Required value was not selected" promptTitle="Gender" prompt="Please choose required value from the list" sqref="D4:D201" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>lookupgender1170</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="U4:U201" allowBlank="true" errorStyle="information" promptTitle="Disease Stage Reported" prompt="Please choose preferred value from the list" errorTitle="Disease Stage Reported" error="Preferred value was not selected" showInputMessage="true">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Disease Stage Reported" error="Preferred value was not selected" promptTitle="Disease Stage Reported" prompt="Please choose preferred value from the list" sqref="U4:U201" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>lookupdisease_stage_reported1171</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="G4:G201" allowBlank="true" errorStyle="stop" promptTitle="Age Unit" prompt="Please choose required value from the list" errorTitle="Age Unit" error="Required value was not selected" showInputMessage="true">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Age Unit" error="Required value was not selected" promptTitle="Age Unit" prompt="Please choose required value from the list" sqref="G4:G201" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>lookupage_unit1172</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="H4:H201" allowBlank="true" errorStyle="stop" promptTitle="Age Event" prompt="Please choose required value from the list" errorTitle="Age Event" error="Required value was not selected" showInputMessage="true">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Age Event" error="Required value was not selected" promptTitle="Age Event" prompt="Please choose required value from the list" sqref="H4:H201" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>lookupage_event1173</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="K4:K201" allowBlank="true" errorStyle="stop" promptTitle="Subject Location" prompt="Please choose required value from the list" errorTitle="Subject Location" error="Required value was not selected" showInputMessage="true">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Subject Location" error="Required value was not selected" promptTitle="Subject Location" prompt="Please choose required value from the list" sqref="K4:K201" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>lookupsubject_location1174</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="L4:L201" allowBlank="true" errorStyle="stop" promptTitle="Species" prompt="Please choose required value from the list" errorTitle="Species" error="Required value was not selected" showInputMessage="true">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Species" error="Required value was not selected" promptTitle="Species" prompt="Please choose required value from the list" sqref="L4:L201" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>lookupspecies1175</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="P4:P201" allowBlank="true" errorStyle="information" promptTitle="Exposure Process Reported" prompt="Please choose preferred value from the list" errorTitle="Exposure Process Reported" error="Preferred value was not selected" showInputMessage="true">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Exposure Process Reported" error="Preferred value was not selected" promptTitle="Exposure Process Reported" prompt="Please choose preferred value from the list" sqref="P4:P201" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>lookupexposure_process_reported1176</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:A757"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="485">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="487">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="489">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="496">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="510">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="511">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="514">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="516">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="521">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="522">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="524">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="529">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="530">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="533">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="534">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="536">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="537">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="539">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="540">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="541">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="542">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="543">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="544">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="545">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="546">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="547">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="548">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="549">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="550">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="551">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="552">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="553">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="554">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="555">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="556">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="557">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="558">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="559">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="560">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="561">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="562">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="563">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="564">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="565">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="566">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="567">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="568">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="569">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="570">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="571">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="572">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="573">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="574">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="575">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="576">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="577">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="578">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="579">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="580">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="581">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="582">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="583">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="584">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="585">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="586">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="587">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="588">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="589">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="590">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="591">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="592">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="593">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="594">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="595">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="596">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="597">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="598">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="599">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="600">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="601">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="602">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="603">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="604">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="605">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="606">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="607">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="608">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="609">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="610">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="611">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="612">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="613">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="614">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="615">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="616">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="617">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="618">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="619">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="620">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="621">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="622">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="623">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="624">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="625">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="626">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="627">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="628">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="629">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="630">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="631">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="632">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="633">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="634">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="635">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="636">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="637">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="638">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="639">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="640">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="641">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="642">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="643">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="644">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="645">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="646">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="647">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="648">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="649">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="650">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="651">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="652">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="653">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="654">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="655">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="656">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="657">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="658">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="659">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="660">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="661">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="662">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="663">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="664">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="665">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="666">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="667">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="668">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="669">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="670">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="671">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="672">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="673">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="674">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="675">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="676">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="677">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="678">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="679">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="680">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="681">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="682">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="683">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="684">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="685">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="686">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="687">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="688">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="689">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="690">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="691">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="692">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="693">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="694">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="695">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="696">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="697">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="698">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="699">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="700">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="701">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="702">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="703">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="704">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="705">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="706">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="707">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="708">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="709">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="710">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="711">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="712">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="713">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="714">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="715">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="716">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="717">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="718">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="719">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="721">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="722">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="723">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="724">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="725">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="726">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="727">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="728">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="729">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="730">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="731">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="732">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="733">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="734">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="735">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="736">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="737">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="739">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="740">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="741">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="742">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="743">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="744">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="745">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="746">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="747">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="748">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="749">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="750">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="751">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="752">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="753">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="754">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="755">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="756">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="757">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>765</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/seronetTemplates/template/subjectAnimals.xlsx
+++ b/seronetTemplates/template/subjectAnimals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AAAD7D-99C8-6F45-94C1-F4ADC46BC89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B5279C-0384-4F40-867C-6AB2D787E98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="20540" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20540" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subjectAnimals.txt" sheetId="1" r:id="rId1"/>

--- a/seronetTemplates/template/subjectAnimals.xlsx
+++ b/seronetTemplates/template/subjectAnimals.xlsx
@@ -1,133 +1,330 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CBB2A8-70A1-B54B-9702-DBCFC4806B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="6000" yWindow="1880" windowWidth="21800" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="subjectAnimals.txt" r:id="rId3" sheetId="1"/>
-    <sheet name="lookup" r:id="rId4" sheetId="2"/>
+    <sheet name="subjectAnimals.txt" sheetId="1" r:id="rId1"/>
+    <sheet name="lookup" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="lookupage_event1173">lookup!$A$451:$A$459</definedName>
+    <definedName name="lookupage_unit1172">lookup!$A$441:$A$450</definedName>
+    <definedName name="lookupdisease_reported1169">lookup!$A$81:$A$424</definedName>
+    <definedName name="lookupdisease_stage_reported1171">lookup!$A$432:$A$440</definedName>
     <definedName name="lookupexposure_material_reported1168">lookup!$A$1:$A$80</definedName>
-    <definedName name="lookupdisease_reported1169">lookup!$A$81:$A$424</definedName>
+    <definedName name="lookupexposure_process_reported1176">lookup!$A$738:$A$757</definedName>
     <definedName name="lookupgender1170">lookup!$A$425:$A$431</definedName>
-    <definedName name="lookupdisease_stage_reported1171">lookup!$A$432:$A$440</definedName>
-    <definedName name="lookupage_unit1172">lookup!$A$441:$A$450</definedName>
-    <definedName name="lookupage_event1173">lookup!$A$451:$A$459</definedName>
+    <definedName name="lookupspecies1175">lookup!$A$720:$A$737</definedName>
     <definedName name="lookupsubject_location1174">lookup!$A$460:$A$719</definedName>
-    <definedName name="lookupspecies1175">lookup!$A$720:$A$737</definedName>
-    <definedName name="lookupexposure_process_reported1176">lookup!$A$738:$A$757</definedName>
   </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
     <author>Apache POI</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="1">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded.  The template column is associated with the following database table column subject.user_defined_id and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded.  The template column is associated with the following database table column subject.user_defined_id and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="1">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t>Please enter either a study arm or cohort user defined ID or ImmPort accession. When subjects are initially uploaded to ImmPort, they may be assigned to a single study's arm.  The template column is associated with the following database table column arm_or_cohort.user_defined_id and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please enter either a study arm or cohort user defined ID or ImmPort accession. When subjects are initially uploaded to ImmPort, they may be assigned to a single study's arm.  The template column is associated with the following database table column arm_or_cohort.user_defined_id and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="1">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t>Please choose from the drop down list.  The template column is associated with the following database table column subject.gender and has data type varchar(20)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please choose from the drop down list.  The template column is associated with the following database table column subject.gender and has data type varchar(20)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="1">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t>Please enter a number.  The template column is associated with the following database table column arm_2_subject.min_subject_age and has data type float</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Please enter a number.  The template column is associated with the following database table column arm_2_subject.min_subject_age and has data type float</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="1">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <t>Please enter a number.  The template column is associated with the following database table column arm_2_subject.max_subject_age and has data type float</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Please enter a number.  The template column is associated with the following database table column arm_2_subject.max_subject_age and has data type float</t>
+        </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
-        <t>Please choose from the drop down list.  The age unit must conform to the age unit assigned to the study.  The template column is associated with the following database table column arm_2_subject.age_unit and has data type varchar(25)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please choose from the drop down list.  The age unit must conform to the age unit assigned to the study.  The template column is associated with the following database table column arm_2_subject.age_unit and has data type varchar(25)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="1">
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
-        <t>Please choose from the drop down list.  The template column is associated with the following database table column arm_2_subject.age_event and has data type varchar(40)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please choose from the drop down list.  The template column is associated with the following database table column arm_2_subject.age_event and has data type varchar(40)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="1">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
-        <t>If "Age Event" = Other, this field specifies the age event (free text). Otherwise, leave this column blank.  The template column is associated with the following database table column arm_2_subject.age_event_specify and has data type varchar(50)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>If "Age Event" = Other, this field specifies the age event (free text). Otherwise, leave this column blank.  The template column is associated with the following database table column arm_2_subject.age_event_specify and has data type varchar(50)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
-        <t>Enter a description of the subject.  The template column is associated with the following database table column arm_2_subject.subject_phenotype and has data type varchar(200)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Enter a description of the subject.  The template column is associated with the following database table column arm_2_subject.subject_phenotype and has data type varchar(200)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
-        <t>Please choose from the drop down list.  The template column is associated with the following database table column arm_2_subject.subject_location and has data type varchar(50)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please choose from the drop down list.  The template column is associated with the following database table column arm_2_subject.subject_location and has data type varchar(50)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
-        <t>Please choose from the drop down list.  The template column is associated with the following database table column subject.species and has data type varchar(30)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please choose from the drop down list.  The template column is associated with the following database table column subject.species and has data type varchar(30)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
-        <t>Please provide strain and breed information as available.  The template column is associated with the following database table column subject.strain and has data type varchar(50)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Please provide strain and breed information as available.  The template column is associated with the following database table column subject.strain and has data type varchar(50)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
-        <t>Strain or breed characteristics that are relevant for the study (e.g. susceptibility).  The template column is associated with the following database table column subject.strain_characteristics and has data type varchar(500)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Strain or breed characteristics that are relevant for the study (e.g. susceptibility).  The template column is associated with the following database table column subject.strain_characteristics and has data type varchar(500)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
-        <t>This pseudo column separates the results (lab tests) from the lab test panel meta data. It must always appear and be the column that appears immediately after the last meta-data column and before any result columns.</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This pseudo column separates the results (lab tests) from the lab test panel meta data. It must always appear and be the column that appears immediately after the last meta-data column and before any result columns.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1">
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
-        <t>This identifies the type of process through which a host is exposed and the type of evidence for that exposure to have happened, which are tightly intertwined. This is the only element of the four that is always mandatory. Please select an exposure process from the list provided if the process matches yours or enter a exposure process if there is not an appropriate one provided. This exposure process is visible when the result is shared.  The value provided by the user is further checked against the pref mapping table lk_exposure_process_pref_map.  The template column is associated with the following database table column immune_exposure.exposure_process_reported and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This identifies the type of process through which a host is exposed and the type of evidence for that exposure to have happened, which are tightly intertwined. This is the only element of the four that is always mandatory. Please select an exposure process from the list provided if the process matches yours or enter a exposure process if there is not an appropriate one provided. This exposure process is visible when the result is shared.  The value provided by the user is further checked against the pref mapping table lk_exposure_process_pref_map.  The template column is associated with the following database table column immune_exposure.exposure_process_reported and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1">
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
-        <t>This describes what substance(s) the host is exposed to and/or develops immune reactions to as part of the exposure process. Please select an exposure material from the list provided if the exposure material matches yours or enter a exposure material if there is not an appropriate one provided. This exposure material is visible when the result is shared.  The value provided by the user is further checked against the pref mapping table lk_exposure_material_pref_map.  The template column is associated with the following database table column immune_exposure.exposure_material_reported and has data type varchar(200)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This describes what substance(s) the host is exposed to and/or develops immune reactions to as part of the exposure process. Please select an exposure material from the list provided if the exposure material matches yours or enter a exposure material if there is not an appropriate one provided. This exposure material is visible when the result is shared.  The value provided by the user is further checked against the pref mapping table lk_exposure_material_pref_map.  The template column is associated with the following database table column immune_exposure.exposure_material_reported and has data type varchar(200)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1">
+    <comment ref="R3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
-        <t>The NCBI or Vaccine Ontology ID associated with the exposure material. If the Exposure Material Reported is not a preferred value, then the Exposure Material ID must be provided. If the Exposure Material Reported is a preferred value, then the Exposure Material ID will be automatically be the ID associated with the preferred value and user will NOT need to supply this ID.  The template column is associated with the following database table column immune_exposure.exposure_material_id and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The NCBI or Vaccine Ontology ID associated with the exposure material. If the Exposure Material Reported is not a preferred value, then the Exposure Material ID must be provided. If the Exposure Material Reported is a preferred value, then the Exposure Material ID will be automatically be the ID associated with the preferred value and user will NOT need to supply this ID.  The template column is associated with the following database table column immune_exposure.exposure_material_id and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1">
+    <comment ref="S3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
-        <t>This indicates the specific disease of the host associated with the exposure. Please select a disease from the list provided if the disease matches yours or enter a disease if there is not an appropriate one provided. This disease is visible when the result is shared.  The Value provide by the user is further checked against the pref mapping table lk_study_condition_pref_mappng.  The template column is associated with the following database table column immune_exposure.disease_reported and has data type varchar(550)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This indicates the specific disease of the host associated with the exposure. Please select a disease from the list provided if the disease matches yours or enter a disease if there is not an appropriate one provided. This disease is visible when the result is shared.  The Value provide by the user is further checked against the pref mapping table lk_study_condition_pref_mappng.  The template column is associated with the following database table column immune_exposure.disease_reported and has data type varchar(550)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="1">
+    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
-        <t>The NCBI Disease Ontology ID associated with the disease. If the Disease Reported is not a preferred value, then the Disease Ontology ID must be provided. If the disease is a preferred value, then the Disease Ontology ID will be the DOID associated with the preferred value.  The template column is associated with the following database table column immune_exposure.disease_ontology_id and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>The NCBI Disease Ontology ID associated with the disease. If the Disease Reported is not a preferred value, then the Disease Ontology ID must be provided. If the disease is a preferred value, then the Disease Ontology ID will be the DOID associated with the preferred value.  The template column is associated with the following database table column immune_exposure.disease_ontology_id and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="1">
+    <comment ref="U3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
-        <t>This provides a broad classification of how the disease has progressed. Please select a disease stage from the list provided if the disease stage matches yours or enter a disease stage if there is not an appropriate one provided. This disease stage is visible when the result is shared.  The template column is associated with the following database table column immune_exposure.disease_stage_reported and has data type varchar(100)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This provides a broad classification of how the disease has progressed. Please select a disease stage from the list provided if the disease stage matches yours or enter a disease stage if there is not an appropriate one provided. This disease stage is visible when the result is shared.  The template column is associated with the following database table column immune_exposure.disease_stage_reported and has data type varchar(100)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -2438,58 +2635,50 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <sz val="9.0"/>
-      <color indexed="8"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <sz val="9.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="CCFFFF"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="CCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="22"/>
+        <fgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -2498,127 +2687,23 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF99CC"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF3333"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3333"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFBDBD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDBD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FC9090"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FC9090"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFF33"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF33"/>
+        <fgColor rgb="FFFF3333"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
-    </border>
-    <border>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -2633,179 +2718,7 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="medium"/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2820,197 +2733,439 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U200"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.46875" customWidth="true"/>
-    <col min="2" max="2" width="13.46875" customWidth="true"/>
-    <col min="3" max="3" width="13.46875" customWidth="true"/>
-    <col min="4" max="4" width="13.46875" customWidth="true"/>
-    <col min="5" max="5" width="13.46875" customWidth="true"/>
-    <col min="6" max="6" width="13.46875" customWidth="true"/>
-    <col min="7" max="7" width="13.46875" customWidth="true"/>
-    <col min="8" max="8" width="13.46875" customWidth="true"/>
-    <col min="9" max="9" width="13.46875" customWidth="true"/>
-    <col min="10" max="10" width="13.46875" customWidth="true"/>
-    <col min="11" max="11" width="13.46875" customWidth="true"/>
-    <col min="12" max="12" width="13.46875" customWidth="true"/>
-    <col min="13" max="13" width="13.46875" customWidth="true"/>
-    <col min="14" max="14" width="13.46875" customWidth="true"/>
-    <col min="15" max="15" width="13.46875" customWidth="true"/>
-    <col min="16" max="16" width="13.46875" customWidth="true"/>
-    <col min="17" max="17" width="13.46875" customWidth="true"/>
-    <col min="18" max="18" width="13.46875" customWidth="true"/>
-    <col min="19" max="19" width="13.46875" customWidth="true"/>
-    <col min="20" max="20" width="13.46875" customWidth="true"/>
-    <col min="21" max="21" width="13.46875" customWidth="true"/>
+    <col min="1" max="21" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45.0" customHeight="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="60.0" customHeight="true">
-      <c r="A2" t="s" s="1">
+    <row r="2" spans="1:21" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="75.0" customHeight="true">
-      <c r="A3" t="s" s="8">
+    <row r="3" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="14">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="14">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="14">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="14">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="14">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="12">
+      <c r="I3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="12">
+      <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K3" t="s" s="14">
+      <c r="K3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s" s="14">
+      <c r="L3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M3" t="s" s="14">
+      <c r="M3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N3" t="s" s="12">
+      <c r="N3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O3" t="s" s="10">
+      <c r="O3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P3" t="s" s="2">
+      <c r="P3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" t="s" s="7">
+      <c r="Q3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R3" t="s" s="7">
+      <c r="R3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S3" t="s" s="7">
+      <c r="S3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T3" t="s" s="7">
+      <c r="T3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U3" t="s" s="7">
+      <c r="U3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3033,7 +3188,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3056,7 +3211,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -3079,7 +3234,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3102,7 +3257,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3125,7 +3280,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3148,7 +3303,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3171,7 +3326,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3194,7 +3349,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3217,7 +3372,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3240,7 +3395,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3263,7 +3418,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3286,7 +3441,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3309,7 +3464,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3332,7 +3487,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3355,7 +3510,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3378,7 +3533,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3401,7 +3556,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3424,7 +3579,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3447,7 +3602,7 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3470,7 +3625,7 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3493,7 +3648,7 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3516,7 +3671,7 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3539,7 +3694,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3562,7 +3717,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3585,7 +3740,7 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3608,7 +3763,7 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3631,7 +3786,7 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3654,7 +3809,7 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3677,7 +3832,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3700,7 +3855,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3723,7 +3878,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3746,7 +3901,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3769,7 +3924,7 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3792,7 +3947,7 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3815,7 +3970,7 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3838,7 +3993,7 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3861,7 +4016,7 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3884,7 +4039,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3907,7 +4062,7 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3930,7 +4085,7 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3953,7 +4108,7 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3976,7 +4131,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3999,7 +4154,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4022,7 +4177,7 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4045,7 +4200,7 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4068,7 +4223,7 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4091,7 +4246,7 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4114,7 +4269,7 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4137,7 +4292,7 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4160,7 +4315,7 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4183,7 +4338,7 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4206,7 +4361,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4229,7 +4384,7 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4252,7 +4407,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4275,7 +4430,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4298,7 +4453,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4321,7 +4476,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4344,7 +4499,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4367,7 +4522,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4390,7 +4545,7 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4413,7 +4568,7 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4436,7 +4591,7 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4459,7 +4614,7 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4482,7 +4637,7 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4505,7 +4660,7 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4528,7 +4683,7 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4551,7 +4706,7 @@
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4574,7 +4729,7 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4597,7 +4752,7 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4620,7 +4775,7 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4643,7 +4798,7 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4666,7 +4821,7 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4689,7 +4844,7 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4712,7 +4867,7 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4735,7 +4890,7 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4758,7 +4913,7 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4781,7 +4936,7 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4804,7 +4959,7 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4827,7 +4982,7 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4850,7 +5005,7 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4873,7 +5028,7 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4896,7 +5051,7 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4919,7 +5074,7 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4942,7 +5097,7 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4965,7 +5120,7 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4988,7 +5143,7 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5011,7 +5166,7 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5034,7 +5189,7 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5057,7 +5212,7 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5080,7 +5235,7 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5103,7 +5258,7 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5126,7 +5281,7 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5149,7 +5304,7 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5172,7 +5327,7 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5195,7 +5350,7 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -5218,7 +5373,7 @@
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -5241,7 +5396,7 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5264,7 +5419,7 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -5287,7 +5442,7 @@
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -5310,7 +5465,7 @@
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -5333,7 +5488,7 @@
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -5356,7 +5511,7 @@
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -5379,7 +5534,7 @@
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5402,7 +5557,7 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5425,7 +5580,7 @@
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -5448,7 +5603,7 @@
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -5471,7 +5626,7 @@
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -5494,7 +5649,7 @@
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -5517,7 +5672,7 @@
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -5540,7 +5695,7 @@
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -5563,7 +5718,7 @@
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -5586,7 +5741,7 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -5609,7 +5764,7 @@
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -5632,7 +5787,7 @@
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5655,7 +5810,7 @@
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5678,7 +5833,7 @@
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5701,7 +5856,7 @@
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5724,7 +5879,7 @@
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5747,7 +5902,7 @@
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5770,7 +5925,7 @@
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5793,7 +5948,7 @@
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5816,7 +5971,7 @@
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5839,7 +5994,7 @@
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5862,7 +6017,7 @@
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5885,7 +6040,7 @@
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5908,7 +6063,7 @@
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5931,7 +6086,7 @@
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5954,7 +6109,7 @@
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5977,7 +6132,7 @@
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6000,7 +6155,7 @@
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6023,7 +6178,7 @@
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6046,7 +6201,7 @@
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6069,7 +6224,7 @@
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6092,7 +6247,7 @@
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6115,7 +6270,7 @@
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6138,7 +6293,7 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6161,7 +6316,7 @@
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6184,7 +6339,7 @@
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6207,7 +6362,7 @@
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6230,7 +6385,7 @@
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6253,7 +6408,7 @@
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6276,7 +6431,7 @@
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6299,7 +6454,7 @@
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6322,7 +6477,7 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6345,7 +6500,7 @@
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6368,7 +6523,7 @@
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6391,7 +6546,7 @@
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6414,7 +6569,7 @@
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6437,7 +6592,7 @@
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6460,7 +6615,7 @@
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6483,7 +6638,7 @@
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6506,7 +6661,7 @@
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6529,7 +6684,7 @@
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6552,7 +6707,7 @@
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6575,7 +6730,7 @@
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6598,7 +6753,7 @@
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6621,7 +6776,7 @@
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6644,7 +6799,7 @@
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6667,7 +6822,7 @@
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6690,7 +6845,7 @@
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6713,7 +6868,7 @@
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6736,7 +6891,7 @@
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6759,7 +6914,7 @@
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6782,7 +6937,7 @@
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6805,7 +6960,7 @@
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6828,7 +6983,7 @@
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6851,7 +7006,7 @@
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6874,7 +7029,7 @@
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6897,7 +7052,7 @@
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6920,7 +7075,7 @@
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6943,7 +7098,7 @@
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6966,7 +7121,7 @@
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6989,7 +7144,7 @@
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7012,7 +7167,7 @@
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7035,7 +7190,7 @@
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7058,7 +7213,7 @@
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7081,7 +7236,7 @@
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7104,7 +7259,7 @@
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7127,7 +7282,7 @@
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7150,7 +7305,7 @@
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7173,7 +7328,7 @@
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7196,7 +7351,7 @@
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7219,7 +7374,7 @@
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7242,7 +7397,7 @@
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7265,7 +7420,7 @@
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7288,7 +7443,7 @@
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7311,7 +7466,7 @@
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7334,7 +7489,7 @@
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7357,7 +7512,7 @@
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7380,7 +7535,7 @@
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7403,7 +7558,7 @@
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7426,7 +7581,7 @@
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7449,7 +7604,7 @@
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7472,7 +7627,7 @@
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7495,7 +7650,7 @@
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7518,7 +7673,7 @@
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7543,3789 +7698,3788 @@
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" sqref="Q4:Q201" allowBlank="true" errorStyle="information" promptTitle="Exposure Material Reported" prompt="Please choose preferred value from the list" errorTitle="Exposure Material Reported" error="Preferred value was not selected" showInputMessage="true">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Exposure Material Reported" error="Preferred value was not selected" promptTitle="Exposure Material Reported" prompt="Please choose preferred value from the list" sqref="Q4:Q201" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>lookupexposure_material_reported1168</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="S4:S201" allowBlank="true" errorStyle="information" promptTitle="Disease Reported" prompt="Please choose preferred value from the list" errorTitle="Disease Reported" error="Preferred value was not selected" showInputMessage="true">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Disease Reported" error="Preferred value was not selected" promptTitle="Disease Reported" prompt="Please choose preferred value from the list" sqref="S4:S201" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>lookupdisease_reported1169</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="D4:D201" allowBlank="true" errorStyle="stop" promptTitle="Gender" prompt="Please choose required value from the list" errorTitle="Gender" error="Required value was not selected" showInputMessage="true">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Gender" error="Required value was not selected" promptTitle="Gender" prompt="Please choose required value from the list" sqref="D4:D201" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>lookupgender1170</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="U4:U201" allowBlank="true" errorStyle="information" promptTitle="Disease Stage Reported" prompt="Please choose preferred value from the list" errorTitle="Disease Stage Reported" error="Preferred value was not selected" showInputMessage="true">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Disease Stage Reported" error="Preferred value was not selected" promptTitle="Disease Stage Reported" prompt="Please choose preferred value from the list" sqref="U4:U201" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>lookupdisease_stage_reported1171</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="G4:G201" allowBlank="true" errorStyle="stop" promptTitle="Age Unit" prompt="Please choose required value from the list" errorTitle="Age Unit" error="Required value was not selected" showInputMessage="true">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Age Unit" error="Required value was not selected" promptTitle="Age Unit" prompt="Please choose required value from the list" sqref="G4:G201" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>lookupage_unit1172</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="H4:H201" allowBlank="true" errorStyle="stop" promptTitle="Age Event" prompt="Please choose required value from the list" errorTitle="Age Event" error="Required value was not selected" showInputMessage="true">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Age Event" error="Required value was not selected" promptTitle="Age Event" prompt="Please choose required value from the list" sqref="H4:H201" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>lookupage_event1173</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="K4:K201" allowBlank="true" errorStyle="stop" promptTitle="Subject Location" prompt="Please choose required value from the list" errorTitle="Subject Location" error="Required value was not selected" showInputMessage="true">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Subject Location" error="Required value was not selected" promptTitle="Subject Location" prompt="Please choose required value from the list" sqref="K4:K201" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>lookupsubject_location1174</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="L4:L201" allowBlank="true" errorStyle="stop" promptTitle="Species" prompt="Please choose required value from the list" errorTitle="Species" error="Required value was not selected" showInputMessage="true">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" errorTitle="Species" error="Required value was not selected" promptTitle="Species" prompt="Please choose required value from the list" sqref="L4:L201" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>lookupspecies1175</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="P4:P201" allowBlank="true" errorStyle="information" promptTitle="Exposure Process Reported" prompt="Please choose preferred value from the list" errorTitle="Exposure Process Reported" error="Preferred value was not selected" showInputMessage="true">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Exposure Process Reported" error="Preferred value was not selected" promptTitle="Exposure Process Reported" prompt="Please choose preferred value from the list" sqref="P4:P201" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>lookupexposure_process_reported1176</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:A757"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="485">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="487">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="489">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="496">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="510">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="511">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="514">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="516">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="521">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="522">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="524">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="529">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="530">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="533">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="534">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="536">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="537">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="539">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="540">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="541">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="542">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="543">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="544">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="545">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="546">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="547">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="548">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="549">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="550">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="551">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="552">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="553">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="554">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="555">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="556">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="557">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="558">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="559">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="560">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="561">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="562">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="563">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="564">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="565">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="566">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="567">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="568">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="569">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="570">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="571">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="572">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="573">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="574">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="575">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="576">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="577">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="578">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="579">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="580">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="581">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="582">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="583">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="584">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="585">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="586">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="587">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="588">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="589">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="590">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="591">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="592">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="593">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="594">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="595">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="596">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="597">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="598">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="599">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="600">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="601">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="602">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="603">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="604">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="605">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="606">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="607">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="608">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="609">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="610">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="611">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="612">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="613">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="614">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="615">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="616">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="617">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="618">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="619">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="620">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="621">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="622">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="623">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="624">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="625">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="626">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="627">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="628">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="629">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="630">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="631">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="632">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="633">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="634">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="635">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="636">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="637">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="638">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="639">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="640">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="641">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="642">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="643">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="644">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="645">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="646">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="647">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="648">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="649">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="650">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="651">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="652">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="653">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="654">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="655">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="656">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="657">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="658">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="659">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="660">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="661">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="662">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="663">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="664">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="665">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="666">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="667">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="668">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="669">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="670">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="671">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="672">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="673">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="674">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="675">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="676">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="677">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="678">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="679">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="680">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="681">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="682">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="683">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="684">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="685">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="686">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="687">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="688">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="689">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="690">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="691">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="692">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="693">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="694">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="695">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="696">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="697">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="698">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="699">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="700">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="701">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="702">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="703">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="704">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="705">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="706">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="707">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="708">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="709">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="710">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="711">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="712">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="713">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="714">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="715">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="716">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="717">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="718">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="719">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="721">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="722">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="723">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="724">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="725">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="726">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="727">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="728">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="729">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="730">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="731">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="732">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="733">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="734">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="735">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="736">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="737">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="739">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="740">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="741">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="742">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="743">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="744">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="745">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="746">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="747">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="748">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="749">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="750">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="751">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="752">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="753">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="754">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="755">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="756">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="757">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>765</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/seronetTemplates/template/subjectAnimals.xlsx
+++ b/seronetTemplates/template/subjectAnimals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CBB2A8-70A1-B54B-9702-DBCFC4806B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061F706A-2F45-2542-A118-F20DF455AF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="1880" windowWidth="21800" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3078,8 +3078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
